--- a/Pub_Style.xlsx
+++ b/Pub_Style.xlsx
@@ -14,7 +14,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$478</definedName>
+  </definedNames>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="627">
   <si>
     <t>Full Reference</t>
   </si>
@@ -749,9 +752,6 @@
     <t>BA02ABM</t>
   </si>
   <si>
-    <t>BA02AB</t>
-  </si>
-  <si>
     <t>BBS06DS</t>
   </si>
   <si>
@@ -803,9 +803,6 @@
     <t>BM06AB2</t>
   </si>
   <si>
-    <t>BM06AB</t>
-  </si>
-  <si>
     <t>BM06PA1</t>
   </si>
   <si>
@@ -1911,15 +1908,6 @@
   </si>
   <si>
     <t>YY01ACn</t>
-  </si>
-  <si>
-    <t>CA05AA1JH</t>
-  </si>
-  <si>
-    <t>CA05AC2JH</t>
-  </si>
-  <si>
-    <t>CA05AC3JH</t>
   </si>
 </sst>
 </file>
@@ -2244,10 +2232,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W484"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136:B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,7 +2257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -2279,7 +2268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -2290,7 +2279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -2301,7 +2290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -2312,7 +2301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2323,7 +2312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -2334,7 +2323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2345,7 +2334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2356,7 +2345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2367,7 +2356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2378,7 +2367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2389,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2400,7 +2389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2411,7 +2400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2422,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2433,7 +2422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -2444,7 +2433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>166</v>
       </c>
@@ -2455,7 +2444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>167</v>
       </c>
@@ -2466,7 +2455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -2477,7 +2466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>169</v>
       </c>
@@ -2488,7 +2477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>170</v>
       </c>
@@ -2499,7 +2488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>171</v>
       </c>
@@ -2510,7 +2499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -2521,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>173</v>
       </c>
@@ -2532,7 +2521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>174</v>
       </c>
@@ -2543,7 +2532,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>175</v>
       </c>
@@ -2554,7 +2543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>176</v>
       </c>
@@ -2565,7 +2554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>177</v>
       </c>
@@ -2576,7 +2565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>178</v>
       </c>
@@ -2587,7 +2576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>179</v>
       </c>
@@ -2598,7 +2587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>180</v>
       </c>
@@ -2609,7 +2598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>181</v>
       </c>
@@ -2620,7 +2609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>182</v>
       </c>
@@ -2631,7 +2620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>183</v>
       </c>
@@ -2642,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>184</v>
       </c>
@@ -2653,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>185</v>
       </c>
@@ -2664,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>186</v>
       </c>
@@ -2675,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>187</v>
       </c>
@@ -2686,7 +2675,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -2697,7 +2686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>189</v>
       </c>
@@ -2708,7 +2697,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>190</v>
       </c>
@@ -2719,7 +2708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>191</v>
       </c>
@@ -2730,7 +2719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>192</v>
       </c>
@@ -2741,7 +2730,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -2752,7 +2741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>194</v>
       </c>
@@ -2763,7 +2752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>195</v>
       </c>
@@ -2774,7 +2763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>196</v>
       </c>
@@ -2785,7 +2774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>197</v>
       </c>
@@ -2796,7 +2785,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>198</v>
       </c>
@@ -2807,7 +2796,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>199</v>
       </c>
@@ -2818,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>200</v>
       </c>
@@ -2829,7 +2818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>201</v>
       </c>
@@ -2840,7 +2829,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>202</v>
       </c>
@@ -2851,7 +2840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>203</v>
       </c>
@@ -2862,7 +2851,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>204</v>
       </c>
@@ -2873,7 +2862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>205</v>
       </c>
@@ -2884,7 +2873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>206</v>
       </c>
@@ -2895,7 +2884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -2906,7 +2895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>208</v>
       </c>
@@ -2917,7 +2906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -2928,7 +2917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>210</v>
       </c>
@@ -2939,7 +2928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -2950,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>212</v>
       </c>
@@ -2961,7 +2950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -2972,7 +2961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -2983,7 +2972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -2994,7 +2983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -3005,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>217</v>
       </c>
@@ -3016,7 +3005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -3027,7 +3016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -3038,7 +3027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -3049,7 +3038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3060,7 +3049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -3071,7 +3060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3082,7 +3071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -3093,7 +3082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -3104,7 +3093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -3115,7 +3104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -3126,7 +3115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>228</v>
       </c>
@@ -3137,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>229</v>
       </c>
@@ -3148,7 +3137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>230</v>
       </c>
@@ -3159,7 +3148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>231</v>
       </c>
@@ -3170,7 +3159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -3181,7 +3170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>233</v>
       </c>
@@ -3192,7 +3181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>234</v>
       </c>
@@ -3203,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>235</v>
       </c>
@@ -3214,7 +3203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>236</v>
       </c>
@@ -3225,7 +3214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>237</v>
       </c>
@@ -3236,7 +3225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>238</v>
       </c>
@@ -3247,7 +3236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>239</v>
       </c>
@@ -3258,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>240</v>
       </c>
@@ -3269,18 +3258,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>241</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>242</v>
       </c>
@@ -3291,18 +3280,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>244</v>
       </c>
@@ -3313,7 +3302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>245</v>
       </c>
@@ -3324,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>246</v>
       </c>
@@ -3335,7 +3324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>247</v>
       </c>
@@ -3346,18 +3335,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>248</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>249</v>
       </c>
@@ -3368,7 +3357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -3379,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -3390,18 +3379,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>252</v>
       </c>
       <c r="B104" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C104" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -3412,18 +3401,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>254</v>
       </c>
       <c r="B106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -3434,7 +3423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -3445,7 +3434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -3456,7 +3445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -3467,7 +3456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -3478,7 +3467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>260</v>
       </c>
@@ -3489,7 +3478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -3500,29 +3489,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>262</v>
       </c>
       <c r="B114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
       <c r="B115" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -3533,84 +3522,84 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
       <c r="B117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C117" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
       <c r="B118" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C118" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>267</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C119" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>268</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C120" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>269</v>
       </c>
       <c r="B121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>270</v>
       </c>
       <c r="B122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>271</v>
       </c>
       <c r="B123" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>272</v>
       </c>
@@ -3621,29 +3610,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>273</v>
       </c>
       <c r="B125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>274</v>
       </c>
       <c r="B126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -3654,7 +3643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>276</v>
       </c>
@@ -3665,7 +3654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>277</v>
       </c>
@@ -3676,7 +3665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>278</v>
       </c>
@@ -3687,7 +3676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -3698,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -3709,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>281</v>
       </c>
@@ -3720,23 +3709,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>282</v>
       </c>
       <c r="B134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>283</v>
       </c>
       <c r="B135" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3747,7 +3736,7 @@
         <v>284</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3758,35 +3747,35 @@
         <v>285</v>
       </c>
       <c r="B137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>286</v>
       </c>
       <c r="B138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C138" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>287</v>
       </c>
       <c r="B139" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -3797,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -3808,51 +3797,51 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C142" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>291</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C143" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>292</v>
       </c>
       <c r="B144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>293</v>
       </c>
       <c r="B145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -3863,7 +3852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -3874,29 +3863,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>296</v>
       </c>
       <c r="B148" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>297</v>
       </c>
       <c r="B149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -3907,7 +3896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -3918,29 +3907,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
       <c r="B152" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>301</v>
       </c>
       <c r="B153" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -3951,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>303</v>
       </c>
@@ -3962,95 +3951,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>304</v>
       </c>
       <c r="B156" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>305</v>
       </c>
       <c r="B157" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>307</v>
       </c>
       <c r="B159" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>308</v>
       </c>
       <c r="B160" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>309</v>
       </c>
       <c r="B161" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>311</v>
       </c>
       <c r="B163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -4061,7 +4050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>313</v>
       </c>
@@ -4072,95 +4061,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>314</v>
       </c>
       <c r="B166" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>315</v>
       </c>
       <c r="B167" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>316</v>
       </c>
       <c r="B168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>317</v>
       </c>
       <c r="B169" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>318</v>
       </c>
       <c r="B170" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C170" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>319</v>
       </c>
       <c r="B171" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C171" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>320</v>
       </c>
       <c r="B172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>321</v>
       </c>
       <c r="B173" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>322</v>
       </c>
@@ -4171,7 +4160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>323</v>
       </c>
@@ -4182,84 +4171,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>324</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>325</v>
       </c>
       <c r="B177" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>327</v>
       </c>
       <c r="B179" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>328</v>
       </c>
       <c r="B180" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C180" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>329</v>
       </c>
       <c r="B181" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C181" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>330</v>
       </c>
       <c r="B182" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>331</v>
       </c>
@@ -4270,7 +4259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -4281,29 +4270,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>333</v>
       </c>
       <c r="B185" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>334</v>
       </c>
       <c r="B186" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>335</v>
       </c>
@@ -4314,7 +4303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>336</v>
       </c>
@@ -4325,7 +4314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>337</v>
       </c>
@@ -4336,7 +4325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>338</v>
       </c>
@@ -4347,7 +4336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>339</v>
       </c>
@@ -4358,7 +4347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>340</v>
       </c>
@@ -4369,7 +4358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>341</v>
       </c>
@@ -4380,7 +4369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>342</v>
       </c>
@@ -4391,7 +4380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>343</v>
       </c>
@@ -4402,7 +4391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>344</v>
       </c>
@@ -4413,40 +4402,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>345</v>
       </c>
       <c r="B197" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>346</v>
       </c>
       <c r="B198" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>348</v>
       </c>
@@ -4457,7 +4446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>349</v>
       </c>
@@ -4468,29 +4457,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>350</v>
       </c>
       <c r="B202" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>351</v>
       </c>
       <c r="B203" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>352</v>
       </c>
@@ -4501,7 +4490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>353</v>
       </c>
@@ -4512,7 +4501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>354</v>
       </c>
@@ -4523,29 +4512,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>356</v>
       </c>
       <c r="B208" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -4556,7 +4545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>358</v>
       </c>
@@ -4567,73 +4556,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>359</v>
       </c>
       <c r="B211" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>360</v>
       </c>
       <c r="B212" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>361</v>
       </c>
       <c r="B213" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>362</v>
       </c>
       <c r="B214" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>363</v>
       </c>
       <c r="B215" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>364</v>
       </c>
       <c r="B216" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>365</v>
       </c>
@@ -4644,84 +4633,84 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>366</v>
       </c>
       <c r="B218" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>367</v>
       </c>
       <c r="B219" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C219" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>368</v>
       </c>
       <c r="B220" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>369</v>
       </c>
       <c r="B221" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C221" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>370</v>
       </c>
       <c r="B222" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>371</v>
       </c>
       <c r="B223" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C223" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>372</v>
       </c>
       <c r="B224" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C224" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>373</v>
       </c>
@@ -4732,7 +4721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>374</v>
       </c>
@@ -4743,7 +4732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>375</v>
       </c>
@@ -4754,7 +4743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>376</v>
       </c>
@@ -4765,7 +4754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>377</v>
       </c>
@@ -4776,7 +4765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>378</v>
       </c>
@@ -4787,7 +4776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>379</v>
       </c>
@@ -4798,7 +4787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>380</v>
       </c>
@@ -4809,29 +4798,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>381</v>
       </c>
       <c r="B233" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C233" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>382</v>
       </c>
       <c r="B234" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C234" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>383</v>
       </c>
@@ -4842,7 +4831,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>384</v>
       </c>
@@ -4853,7 +4842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>385</v>
       </c>
@@ -4864,7 +4853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>386</v>
       </c>
@@ -4875,29 +4864,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>387</v>
       </c>
       <c r="B239" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C239" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>388</v>
       </c>
       <c r="B240" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C240" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>389</v>
       </c>
@@ -4908,7 +4897,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>390</v>
       </c>
@@ -4919,7 +4908,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>391</v>
       </c>
@@ -4930,62 +4919,62 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>392</v>
       </c>
       <c r="B244" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C244" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>393</v>
       </c>
       <c r="B245" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C245" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>394</v>
       </c>
       <c r="B246" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C246" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>395</v>
       </c>
       <c r="B247" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C247" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>396</v>
       </c>
       <c r="B248" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>397</v>
       </c>
@@ -4996,95 +4985,95 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>398</v>
       </c>
       <c r="B250" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C250" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>399</v>
       </c>
       <c r="B251" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>400</v>
       </c>
       <c r="B252" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>401</v>
       </c>
       <c r="B253" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C253" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>402</v>
       </c>
       <c r="B254" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C254" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>403</v>
       </c>
       <c r="B255" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C255" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>404</v>
       </c>
       <c r="B256" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>405</v>
       </c>
       <c r="B257" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>406</v>
       </c>
@@ -5095,7 +5084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>407</v>
       </c>
@@ -5106,238 +5095,238 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>408</v>
       </c>
       <c r="B260" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>409</v>
       </c>
       <c r="B261" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>410</v>
       </c>
       <c r="B262" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>411</v>
       </c>
       <c r="B263" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C263" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>412</v>
       </c>
       <c r="B264" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>413</v>
       </c>
       <c r="B265" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C265" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>414</v>
       </c>
       <c r="B266" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>415</v>
       </c>
       <c r="B267" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>416</v>
       </c>
       <c r="B268" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>417</v>
       </c>
       <c r="B269" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>418</v>
       </c>
       <c r="B270" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C270" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>419</v>
       </c>
       <c r="B271" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C271" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>420</v>
       </c>
       <c r="B272" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C272" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>421</v>
       </c>
       <c r="B273" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C273" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>422</v>
       </c>
       <c r="B274" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>423</v>
       </c>
       <c r="B275" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>424</v>
       </c>
       <c r="B276" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>425</v>
       </c>
       <c r="B277" t="s">
-        <v>96</v>
-      </c>
-      <c r="C277" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>426</v>
       </c>
       <c r="B278" t="s">
-        <v>96</v>
-      </c>
-      <c r="C278" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>427</v>
       </c>
       <c r="B279" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C279" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>428</v>
       </c>
       <c r="B280" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C280" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>429</v>
       </c>
@@ -5348,7 +5337,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>430</v>
       </c>
@@ -5359,29 +5348,29 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>431</v>
       </c>
       <c r="B283" t="s">
-        <v>99</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>432</v>
       </c>
       <c r="B284" t="s">
-        <v>99</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>433</v>
       </c>
@@ -5392,7 +5381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>434</v>
       </c>
@@ -5403,40 +5392,40 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>435</v>
       </c>
       <c r="B287" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C287" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>436</v>
       </c>
       <c r="B288" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C288" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>437</v>
       </c>
       <c r="B289" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>438</v>
       </c>
@@ -5447,7 +5436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>439</v>
       </c>
@@ -5458,7 +5447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>440</v>
       </c>
@@ -5469,7 +5458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>441</v>
       </c>
@@ -5480,7 +5469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>442</v>
       </c>
@@ -5491,7 +5480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>443</v>
       </c>
@@ -5502,7 +5491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>444</v>
       </c>
@@ -5513,7 +5502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>445</v>
       </c>
@@ -5524,29 +5513,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>446</v>
       </c>
       <c r="B298" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C298" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>447</v>
       </c>
       <c r="B299" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C299" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>448</v>
       </c>
@@ -5557,62 +5546,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>449</v>
       </c>
       <c r="B301" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C301" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>450</v>
       </c>
       <c r="B302" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C302" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>451</v>
       </c>
       <c r="B303" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C303" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>452</v>
       </c>
       <c r="B304" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C304" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>453</v>
       </c>
       <c r="B305" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C305" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>454</v>
       </c>
@@ -5623,7 +5612,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>455</v>
       </c>
@@ -5634,7 +5623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>456</v>
       </c>
@@ -5645,7 +5634,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>457</v>
       </c>
@@ -5656,7 +5645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>458</v>
       </c>
@@ -5667,7 +5656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>459</v>
       </c>
@@ -5678,7 +5667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>460</v>
       </c>
@@ -5689,7 +5678,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>461</v>
       </c>
@@ -5700,7 +5689,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>462</v>
       </c>
@@ -5711,7 +5700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>463</v>
       </c>
@@ -5722,7 +5711,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>464</v>
       </c>
@@ -5733,7 +5722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>465</v>
       </c>
@@ -5744,7 +5733,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>466</v>
       </c>
@@ -5755,29 +5744,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>467</v>
       </c>
       <c r="B319" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C319" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>468</v>
       </c>
       <c r="B320" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C320" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>469</v>
       </c>
@@ -5788,7 +5777,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>470</v>
       </c>
@@ -5799,7 +5788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>471</v>
       </c>
@@ -5810,40 +5799,40 @@
         <v>77</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>472</v>
       </c>
       <c r="B324" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C324" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>473</v>
       </c>
       <c r="B325" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C325" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>474</v>
       </c>
       <c r="B326" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>475</v>
       </c>
@@ -5854,29 +5843,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>476</v>
       </c>
       <c r="B328" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>477</v>
       </c>
       <c r="B329" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>478</v>
       </c>
@@ -5887,161 +5876,161 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>479</v>
       </c>
       <c r="B331" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C331" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>480</v>
       </c>
       <c r="B332" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>481</v>
       </c>
       <c r="B333" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C333" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>482</v>
       </c>
       <c r="B334" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C334" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>483</v>
       </c>
       <c r="B335" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C335" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>484</v>
       </c>
       <c r="B336" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C336" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>485</v>
       </c>
       <c r="B337" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C337" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>486</v>
       </c>
       <c r="B338" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C338" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>487</v>
       </c>
       <c r="B339" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C339" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>488</v>
       </c>
       <c r="B340" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C340" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>489</v>
       </c>
       <c r="B341" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C341" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>490</v>
       </c>
       <c r="B342" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>491</v>
       </c>
       <c r="B343" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C343" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>492</v>
       </c>
       <c r="B344" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C344" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>493</v>
       </c>
@@ -6052,7 +6041,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>494</v>
       </c>
@@ -6063,7 +6052,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>495</v>
       </c>
@@ -6074,7 +6063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>496</v>
       </c>
@@ -6085,7 +6074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>497</v>
       </c>
@@ -6096,7 +6085,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>498</v>
       </c>
@@ -6107,7 +6096,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>499</v>
       </c>
@@ -6118,7 +6107,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>500</v>
       </c>
@@ -6129,7 +6118,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>501</v>
       </c>
@@ -6140,7 +6129,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>502</v>
       </c>
@@ -6151,7 +6140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>503</v>
       </c>
@@ -6162,7 +6151,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>504</v>
       </c>
@@ -6173,7 +6162,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>505</v>
       </c>
@@ -6184,7 +6173,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>506</v>
       </c>
@@ -6195,7 +6184,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>507</v>
       </c>
@@ -6206,7 +6195,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>508</v>
       </c>
@@ -6217,7 +6206,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>509</v>
       </c>
@@ -6228,7 +6217,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>510</v>
       </c>
@@ -6239,7 +6228,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>511</v>
       </c>
@@ -6250,7 +6239,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>512</v>
       </c>
@@ -6261,7 +6250,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>513</v>
       </c>
@@ -6272,7 +6261,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>514</v>
       </c>
@@ -6283,7 +6272,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>515</v>
       </c>
@@ -6294,29 +6283,29 @@
         <v>120</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>516</v>
       </c>
       <c r="B368" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C368" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>517</v>
       </c>
       <c r="B369" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C369" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>518</v>
       </c>
@@ -6327,73 +6316,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>519</v>
       </c>
       <c r="B371" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>520</v>
       </c>
       <c r="B372" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>521</v>
       </c>
       <c r="B373" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>522</v>
       </c>
       <c r="B374" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>523</v>
       </c>
       <c r="B375" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C375" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>524</v>
       </c>
       <c r="B376" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C376" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>525</v>
       </c>
@@ -6404,7 +6393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>526</v>
       </c>
@@ -6415,7 +6404,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>527</v>
       </c>
@@ -6426,7 +6415,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>528</v>
       </c>
@@ -6437,7 +6426,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>529</v>
       </c>
@@ -6448,7 +6437,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>530</v>
       </c>
@@ -6459,7 +6448,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>531</v>
       </c>
@@ -6470,7 +6459,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>532</v>
       </c>
@@ -6481,7 +6470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>533</v>
       </c>
@@ -6492,7 +6481,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>534</v>
       </c>
@@ -6503,7 +6492,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>535</v>
       </c>
@@ -6514,7 +6503,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>536</v>
       </c>
@@ -6525,7 +6514,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>537</v>
       </c>
@@ -6536,7 +6525,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>538</v>
       </c>
@@ -6547,7 +6536,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>539</v>
       </c>
@@ -6558,7 +6547,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>540</v>
       </c>
@@ -6569,7 +6558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>541</v>
       </c>
@@ -6580,7 +6569,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>542</v>
       </c>
@@ -6591,7 +6580,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>543</v>
       </c>
@@ -6602,7 +6591,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>544</v>
       </c>
@@ -6613,7 +6602,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>545</v>
       </c>
@@ -6624,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>546</v>
       </c>
@@ -6635,7 +6624,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>547</v>
       </c>
@@ -6646,7 +6635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>548</v>
       </c>
@@ -6657,7 +6646,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>549</v>
       </c>
@@ -6668,7 +6657,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>550</v>
       </c>
@@ -6679,7 +6668,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>551</v>
       </c>
@@ -6690,7 +6679,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>552</v>
       </c>
@@ -6701,95 +6690,95 @@
         <v>74</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>553</v>
       </c>
       <c r="B405" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C405" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>554</v>
       </c>
       <c r="B406" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C406" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>555</v>
       </c>
       <c r="B407" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>556</v>
       </c>
       <c r="B408" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>557</v>
       </c>
       <c r="B409" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>558</v>
       </c>
       <c r="B410" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>559</v>
       </c>
       <c r="B411" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>560</v>
       </c>
       <c r="B412" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>561</v>
       </c>
@@ -6800,7 +6789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>562</v>
       </c>
@@ -6811,7 +6800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>563</v>
       </c>
@@ -6822,7 +6811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>564</v>
       </c>
@@ -6833,40 +6822,40 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>565</v>
       </c>
       <c r="B417" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C417" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>566</v>
       </c>
       <c r="B418" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>567</v>
       </c>
       <c r="B419" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C419" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>568</v>
       </c>
@@ -6877,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>569</v>
       </c>
@@ -6888,7 +6877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>570</v>
       </c>
@@ -6899,73 +6888,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>571</v>
       </c>
       <c r="B423" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>572</v>
       </c>
       <c r="B424" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C424" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>573</v>
       </c>
       <c r="B425" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C425" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>574</v>
       </c>
       <c r="B426" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C426" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>575</v>
       </c>
       <c r="B427" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C427" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>576</v>
       </c>
       <c r="B428" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C428" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>577</v>
       </c>
@@ -6976,29 +6965,29 @@
         <v>3</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>578</v>
       </c>
       <c r="B430" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C430" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>579</v>
       </c>
       <c r="B431" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C431" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>580</v>
       </c>
@@ -7009,7 +6998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>581</v>
       </c>
@@ -7020,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>582</v>
       </c>
@@ -7031,7 +7020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>583</v>
       </c>
@@ -7042,73 +7031,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>584</v>
       </c>
       <c r="B436" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>585</v>
       </c>
       <c r="B437" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>586</v>
       </c>
       <c r="B438" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>587</v>
       </c>
       <c r="B439" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>588</v>
       </c>
       <c r="B440" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>589</v>
       </c>
       <c r="B441" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>590</v>
       </c>
@@ -7119,139 +7108,139 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>591</v>
       </c>
       <c r="B443" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>592</v>
       </c>
       <c r="B444" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>593</v>
       </c>
       <c r="B445" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>594</v>
       </c>
       <c r="B446" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>595</v>
       </c>
       <c r="B447" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>596</v>
       </c>
       <c r="B448" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>597</v>
       </c>
       <c r="B449" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>598</v>
       </c>
       <c r="B450" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>599</v>
       </c>
       <c r="B451" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C451" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>600</v>
       </c>
       <c r="B452" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C452" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>601</v>
       </c>
       <c r="B453" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C453" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>602</v>
       </c>
       <c r="B454" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C454" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>603</v>
       </c>
@@ -7262,7 +7251,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>604</v>
       </c>
@@ -7273,7 +7262,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>605</v>
       </c>
@@ -7284,7 +7273,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>606</v>
       </c>
@@ -7295,7 +7284,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>607</v>
       </c>
@@ -7306,7 +7295,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>608</v>
       </c>
@@ -7317,7 +7306,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>609</v>
       </c>
@@ -7328,7 +7317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>610</v>
       </c>
@@ -7339,7 +7328,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>611</v>
       </c>
@@ -7350,7 +7339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>612</v>
       </c>
@@ -7361,29 +7350,29 @@
         <v>74</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>613</v>
       </c>
       <c r="B465" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C465" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>614</v>
       </c>
       <c r="B466" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C466" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>615</v>
       </c>
@@ -7394,7 +7383,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>616</v>
       </c>
@@ -7405,7 +7394,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>617</v>
       </c>
@@ -7416,7 +7405,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>618</v>
       </c>
@@ -7427,7 +7416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>619</v>
       </c>
@@ -7438,7 +7427,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>620</v>
       </c>
@@ -7449,51 +7438,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>621</v>
       </c>
       <c r="B473" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C473" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>622</v>
       </c>
       <c r="B474" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C474" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>623</v>
       </c>
       <c r="B475" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C475" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>624</v>
       </c>
       <c r="B476" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C476" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>625</v>
       </c>
@@ -7504,7 +7493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>626</v>
       </c>
@@ -7515,44 +7504,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" t="s">
-        <v>627</v>
-      </c>
-      <c r="B479" t="s">
-        <v>148</v>
-      </c>
-      <c r="C479" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>628</v>
-      </c>
-      <c r="B480" t="s">
-        <v>148</v>
-      </c>
-      <c r="C480" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" t="s">
-        <v>631</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:C478">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CC06AB"/>
+        <filter val="CC06AC"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pub_Style.xlsx
+++ b/Pub_Style.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\craig_meta\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$478</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="628">
   <si>
     <t>Full Reference</t>
   </si>
@@ -1908,6 +1903,9 @@
   </si>
   <si>
     <t>YY01ACn</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2224,7 +2222,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2233,10 +2231,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C478"/>
+  <dimension ref="A1:D478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136:B137"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D428" sqref="D428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2246,7 +2244,7 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -2256,8 +2254,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -2267,8 +2268,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -2279,7 +2283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -2301,7 +2305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2334,7 +2338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2345,7 +2349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2356,7 +2360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2378,7 +2382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2389,7 +2393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2950,7 +2954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -2960,8 +2964,11 @@
       <c r="C65" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -2971,8 +2978,11 @@
       <c r="C66" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -2982,8 +2992,11 @@
       <c r="C67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -2993,8 +3006,11 @@
       <c r="C68" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>217</v>
       </c>
@@ -3005,7 +3021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -3016,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -3027,7 +3043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -3038,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3049,7 +3065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -3060,7 +3076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3071,7 +3087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -3082,7 +3098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -3093,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -3104,7 +3120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -3115,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>228</v>
       </c>
@@ -3302,7 +3318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>245</v>
       </c>
@@ -3313,7 +3329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>246</v>
       </c>
@@ -3324,7 +3340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>247</v>
       </c>
@@ -3335,7 +3351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>248</v>
       </c>
@@ -3345,8 +3361,11 @@
       <c r="C100" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>249</v>
       </c>
@@ -3356,8 +3375,11 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -3367,8 +3389,11 @@
       <c r="C102" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -3378,8 +3403,11 @@
       <c r="C103" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -3390,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -3401,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>254</v>
       </c>
@@ -3412,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -3423,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -3434,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -3445,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -3456,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -3467,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>260</v>
       </c>
@@ -3478,7 +3506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -3489,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -3499,8 +3527,11 @@
       <c r="C114" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -3510,8 +3541,11 @@
       <c r="C115" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -3521,8 +3555,11 @@
       <c r="C116" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -3532,8 +3569,11 @@
       <c r="C117" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -3543,8 +3583,11 @@
       <c r="C118" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>267</v>
       </c>
@@ -3555,7 +3598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -3566,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>269</v>
       </c>
@@ -3577,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -3588,7 +3631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>271</v>
       </c>
@@ -3599,7 +3642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>272</v>
       </c>
@@ -3610,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -3621,7 +3664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>274</v>
       </c>
@@ -3632,7 +3675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -3643,7 +3686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>276</v>
       </c>
@@ -3654,7 +3697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>277</v>
       </c>
@@ -3665,7 +3708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>278</v>
       </c>
@@ -3676,7 +3719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -3687,7 +3730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -3698,7 +3741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>281</v>
       </c>
@@ -3709,7 +3752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>282</v>
       </c>
@@ -3720,7 +3763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>283</v>
       </c>
@@ -3731,7 +3774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -3742,7 +3785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -3753,7 +3796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -3763,8 +3806,11 @@
       <c r="C138" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D138">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -3774,8 +3820,11 @@
       <c r="C139" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -3785,8 +3834,11 @@
       <c r="C140" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D140">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -3796,8 +3848,11 @@
       <c r="C141" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D141">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -3808,7 +3863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -3819,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>292</v>
       </c>
@@ -3830,7 +3885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -3841,7 +3896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -3852,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -3863,7 +3918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>296</v>
       </c>
@@ -3874,7 +3929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -3885,7 +3940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -3896,7 +3951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -3907,7 +3962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -3918,7 +3973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -3929,7 +3984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -3940,7 +3995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>303</v>
       </c>
@@ -3951,7 +4006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>304</v>
       </c>
@@ -3961,8 +4016,11 @@
       <c r="C156" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D156">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -3973,7 +4031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>306</v>
       </c>
@@ -3984,7 +4042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>307</v>
       </c>
@@ -3995,7 +4053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>308</v>
       </c>
@@ -4006,7 +4064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>309</v>
       </c>
@@ -4017,7 +4075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -4028,7 +4086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>311</v>
       </c>
@@ -4039,7 +4097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -4050,7 +4108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>313</v>
       </c>
@@ -4061,7 +4119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -4072,7 +4130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -4083,7 +4141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -4093,8 +4151,11 @@
       <c r="C168" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D168">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>317</v>
       </c>
@@ -4104,8 +4165,11 @@
       <c r="C169" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D169">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>318</v>
       </c>
@@ -4116,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>319</v>
       </c>
@@ -4127,7 +4191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>320</v>
       </c>
@@ -4138,7 +4202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>321</v>
       </c>
@@ -4149,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>322</v>
       </c>
@@ -4160,7 +4224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>323</v>
       </c>
@@ -4171,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>324</v>
       </c>
@@ -4182,7 +4246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>325</v>
       </c>
@@ -4193,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
@@ -4203,8 +4267,11 @@
       <c r="C178" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D178">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>327</v>
       </c>
@@ -4214,8 +4281,11 @@
       <c r="C179" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D179">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>328</v>
       </c>
@@ -4226,7 +4296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>329</v>
       </c>
@@ -4237,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>330</v>
       </c>
@@ -4248,7 +4318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>331</v>
       </c>
@@ -4259,7 +4329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -4270,7 +4340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>333</v>
       </c>
@@ -4281,7 +4351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>334</v>
       </c>
@@ -4292,7 +4362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>335</v>
       </c>
@@ -4303,7 +4373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>336</v>
       </c>
@@ -4314,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>337</v>
       </c>
@@ -4325,7 +4395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>338</v>
       </c>
@@ -4336,7 +4406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>339</v>
       </c>
@@ -4347,7 +4417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>340</v>
       </c>
@@ -4534,7 +4604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -4545,7 +4615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>358</v>
       </c>
@@ -4556,7 +4626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>359</v>
       </c>
@@ -4567,7 +4637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>360</v>
       </c>
@@ -4578,7 +4648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>361</v>
       </c>
@@ -4589,7 +4659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>362</v>
       </c>
@@ -4600,7 +4670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>363</v>
       </c>
@@ -4611,7 +4681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>364</v>
       </c>
@@ -4622,7 +4692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>365</v>
       </c>
@@ -4633,7 +4703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>366</v>
       </c>
@@ -4644,7 +4714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>367</v>
       </c>
@@ -4655,7 +4725,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>368</v>
       </c>
@@ -4666,7 +4736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>369</v>
       </c>
@@ -4676,8 +4746,11 @@
       <c r="C221" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D221">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>370</v>
       </c>
@@ -4687,8 +4760,11 @@
       <c r="C222" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D222">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>371</v>
       </c>
@@ -4699,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>372</v>
       </c>
@@ -4886,7 +4962,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>389</v>
       </c>
@@ -4897,7 +4973,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>390</v>
       </c>
@@ -4908,7 +4984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>391</v>
       </c>
@@ -4919,7 +4995,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>392</v>
       </c>
@@ -4930,7 +5006,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>393</v>
       </c>
@@ -4941,7 +5017,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>394</v>
       </c>
@@ -4952,7 +5028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>395</v>
       </c>
@@ -4963,7 +5039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>396</v>
       </c>
@@ -4974,7 +5050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>397</v>
       </c>
@@ -4985,7 +5061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>398</v>
       </c>
@@ -4995,8 +5071,11 @@
       <c r="C250" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D250">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>399</v>
       </c>
@@ -5007,7 +5086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>400</v>
       </c>
@@ -5018,7 +5097,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>401</v>
       </c>
@@ -5029,7 +5108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>402</v>
       </c>
@@ -5040,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>403</v>
       </c>
@@ -5051,7 +5130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>404</v>
       </c>
@@ -5062,7 +5141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>405</v>
       </c>
@@ -5073,7 +5152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>406</v>
       </c>
@@ -5084,7 +5163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>407</v>
       </c>
@@ -5095,7 +5174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>408</v>
       </c>
@@ -5106,7 +5185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>409</v>
       </c>
@@ -5117,7 +5196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>410</v>
       </c>
@@ -5128,7 +5207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>411</v>
       </c>
@@ -5138,8 +5217,11 @@
       <c r="C263" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D263">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>412</v>
       </c>
@@ -5150,7 +5232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>413</v>
       </c>
@@ -5161,7 +5243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>414</v>
       </c>
@@ -5172,7 +5254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>415</v>
       </c>
@@ -5183,7 +5265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>416</v>
       </c>
@@ -5194,7 +5276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>417</v>
       </c>
@@ -5205,7 +5287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>418</v>
       </c>
@@ -5216,7 +5298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>419</v>
       </c>
@@ -5227,7 +5309,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>420</v>
       </c>
@@ -5238,7 +5320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>421</v>
       </c>
@@ -5249,7 +5331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>422</v>
       </c>
@@ -5260,7 +5342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>423</v>
       </c>
@@ -5271,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>424</v>
       </c>
@@ -5282,7 +5364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>425</v>
       </c>
@@ -5293,7 +5375,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>426</v>
       </c>
@@ -5304,7 +5386,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>427</v>
       </c>
@@ -5315,7 +5397,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>428</v>
       </c>
@@ -5326,7 +5408,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>429</v>
       </c>
@@ -5337,7 +5419,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>430</v>
       </c>
@@ -5348,7 +5430,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>431</v>
       </c>
@@ -5358,8 +5440,11 @@
       <c r="C283" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D283">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>432</v>
       </c>
@@ -5369,8 +5454,11 @@
       <c r="C284" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D284">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>433</v>
       </c>
@@ -5380,8 +5468,11 @@
       <c r="C285" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D285">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>434</v>
       </c>
@@ -5391,8 +5482,11 @@
       <c r="C286" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D286">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>435</v>
       </c>
@@ -5403,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>436</v>
       </c>
@@ -5414,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>437</v>
       </c>
@@ -5425,7 +5519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>438</v>
       </c>
@@ -5436,7 +5530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>439</v>
       </c>
@@ -5447,7 +5541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>440</v>
       </c>
@@ -5458,7 +5552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>441</v>
       </c>
@@ -5469,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>442</v>
       </c>
@@ -5480,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>443</v>
       </c>
@@ -5491,7 +5585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>444</v>
       </c>
@@ -5502,7 +5596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>445</v>
       </c>
@@ -5513,7 +5607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>446</v>
       </c>
@@ -5523,8 +5617,11 @@
       <c r="C298" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D298">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>447</v>
       </c>
@@ -5534,8 +5631,11 @@
       <c r="C299" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D299">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>448</v>
       </c>
@@ -5545,8 +5645,11 @@
       <c r="C300" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D300">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>449</v>
       </c>
@@ -5557,7 +5660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>450</v>
       </c>
@@ -5568,7 +5671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>451</v>
       </c>
@@ -5579,7 +5682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>452</v>
       </c>
@@ -5766,7 +5869,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>469</v>
       </c>
@@ -5777,7 +5880,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>470</v>
       </c>
@@ -5788,7 +5891,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>471</v>
       </c>
@@ -5799,7 +5902,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>472</v>
       </c>
@@ -5810,7 +5913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>473</v>
       </c>
@@ -5821,7 +5924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>474</v>
       </c>
@@ -5832,7 +5935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>475</v>
       </c>
@@ -5843,7 +5946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>476</v>
       </c>
@@ -5854,7 +5957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>477</v>
       </c>
@@ -5865,7 +5968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>478</v>
       </c>
@@ -5876,7 +5979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>479</v>
       </c>
@@ -5886,8 +5989,11 @@
       <c r="C331" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D331">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>480</v>
       </c>
@@ -5898,7 +6004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>481</v>
       </c>
@@ -5908,8 +6014,11 @@
       <c r="C333" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D333">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>482</v>
       </c>
@@ -5919,8 +6028,11 @@
       <c r="C334" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D334">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>483</v>
       </c>
@@ -5930,8 +6042,11 @@
       <c r="C335" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D335">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>484</v>
       </c>
@@ -6822,7 +6937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>565</v>
       </c>
@@ -6833,7 +6948,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>566</v>
       </c>
@@ -6844,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>567</v>
       </c>
@@ -6855,7 +6970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>568</v>
       </c>
@@ -6866,7 +6981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>569</v>
       </c>
@@ -6877,7 +6992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>570</v>
       </c>
@@ -6888,7 +7003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>571</v>
       </c>
@@ -6899,7 +7014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>572</v>
       </c>
@@ -6910,7 +7025,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>573</v>
       </c>
@@ -6921,7 +7036,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>574</v>
       </c>
@@ -6932,7 +7047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>575</v>
       </c>
@@ -6942,8 +7057,11 @@
       <c r="C427" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D427">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>576</v>
       </c>
@@ -6953,8 +7071,11 @@
       <c r="C428" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D428">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>577</v>
       </c>
@@ -6964,8 +7085,11 @@
       <c r="C429" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D429">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>578</v>
       </c>
@@ -6976,7 +7100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>579</v>
       </c>
@@ -6987,7 +7111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>580</v>
       </c>
@@ -7506,10 +7630,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C478">
-    <filterColumn colId="0">
+    <filterColumn colId="2">
       <filters>
-        <filter val="CC06AB"/>
-        <filter val="CC06AC"/>
+        <filter val="Dissertation (unpub)"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Pub_Style.xlsx
+++ b/Pub_Style.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="627">
   <si>
     <t>Full Reference</t>
   </si>
@@ -1903,9 +1903,6 @@
   </si>
   <si>
     <t>YY01ACn</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2222,7 +2219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2231,10 +2228,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D478"/>
+  <dimension ref="A1:C478"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="D428" sqref="D428"/>
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2244,7 +2241,7 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>149</v>
       </c>
@@ -2254,11 +2251,8 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>150</v>
       </c>
@@ -2268,11 +2262,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>151</v>
       </c>
@@ -2283,7 +2274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>152</v>
       </c>
@@ -2294,7 +2285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>153</v>
       </c>
@@ -2305,7 +2296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -2316,7 +2307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -2327,7 +2318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -2338,7 +2329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>157</v>
       </c>
@@ -2349,7 +2340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>158</v>
       </c>
@@ -2360,7 +2351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>159</v>
       </c>
@@ -2371,7 +2362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>160</v>
       </c>
@@ -2382,7 +2373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
@@ -2393,7 +2384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>162</v>
       </c>
@@ -2404,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>163</v>
       </c>
@@ -2415,7 +2406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>164</v>
       </c>
@@ -2954,7 +2945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>213</v>
       </c>
@@ -2964,11 +2955,8 @@
       <c r="C65" t="s">
         <v>3</v>
       </c>
-      <c r="D65">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>214</v>
       </c>
@@ -2978,11 +2966,8 @@
       <c r="C66" t="s">
         <v>3</v>
       </c>
-      <c r="D66">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>215</v>
       </c>
@@ -2992,11 +2977,8 @@
       <c r="C67" t="s">
         <v>3</v>
       </c>
-      <c r="D67">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>216</v>
       </c>
@@ -3006,11 +2988,8 @@
       <c r="C68" t="s">
         <v>3</v>
       </c>
-      <c r="D68">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>217</v>
       </c>
@@ -3021,7 +3000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>218</v>
       </c>
@@ -3032,7 +3011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>219</v>
       </c>
@@ -3043,7 +3022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>220</v>
       </c>
@@ -3054,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -3065,7 +3044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -3076,7 +3055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>223</v>
       </c>
@@ -3087,7 +3066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>224</v>
       </c>
@@ -3098,7 +3077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -3109,7 +3088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>226</v>
       </c>
@@ -3120,7 +3099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>227</v>
       </c>
@@ -3131,7 +3110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>228</v>
       </c>
@@ -3318,7 +3297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>245</v>
       </c>
@@ -3329,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>246</v>
       </c>
@@ -3340,7 +3319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>247</v>
       </c>
@@ -3351,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>248</v>
       </c>
@@ -3361,11 +3340,8 @@
       <c r="C100" t="s">
         <v>3</v>
       </c>
-      <c r="D100">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>249</v>
       </c>
@@ -3375,11 +3351,8 @@
       <c r="C101" t="s">
         <v>3</v>
       </c>
-      <c r="D101">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>250</v>
       </c>
@@ -3389,11 +3362,8 @@
       <c r="C102" t="s">
         <v>3</v>
       </c>
-      <c r="D102">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>251</v>
       </c>
@@ -3403,11 +3373,8 @@
       <c r="C103" t="s">
         <v>3</v>
       </c>
-      <c r="D103">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>252</v>
       </c>
@@ -3418,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>253</v>
       </c>
@@ -3429,7 +3396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>254</v>
       </c>
@@ -3440,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>255</v>
       </c>
@@ -3451,7 +3418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>256</v>
       </c>
@@ -3462,7 +3429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>257</v>
       </c>
@@ -3473,7 +3440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>258</v>
       </c>
@@ -3484,7 +3451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>259</v>
       </c>
@@ -3495,7 +3462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>260</v>
       </c>
@@ -3506,7 +3473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>261</v>
       </c>
@@ -3517,7 +3484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>262</v>
       </c>
@@ -3527,11 +3494,8 @@
       <c r="C114" t="s">
         <v>3</v>
       </c>
-      <c r="D114">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>263</v>
       </c>
@@ -3541,11 +3505,8 @@
       <c r="C115" t="s">
         <v>3</v>
       </c>
-      <c r="D115">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>264</v>
       </c>
@@ -3555,11 +3516,8 @@
       <c r="C116" t="s">
         <v>3</v>
       </c>
-      <c r="D116">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>265</v>
       </c>
@@ -3569,11 +3527,8 @@
       <c r="C117" t="s">
         <v>3</v>
       </c>
-      <c r="D117">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>266</v>
       </c>
@@ -3583,11 +3538,8 @@
       <c r="C118" t="s">
         <v>3</v>
       </c>
-      <c r="D118">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>267</v>
       </c>
@@ -3598,7 +3550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -3609,7 +3561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>269</v>
       </c>
@@ -3620,7 +3572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>270</v>
       </c>
@@ -3631,7 +3583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>271</v>
       </c>
@@ -3642,7 +3594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>272</v>
       </c>
@@ -3653,7 +3605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>273</v>
       </c>
@@ -3664,7 +3616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>274</v>
       </c>
@@ -3675,7 +3627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>275</v>
       </c>
@@ -3686,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>276</v>
       </c>
@@ -3697,7 +3649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>277</v>
       </c>
@@ -3708,7 +3660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>278</v>
       </c>
@@ -3719,7 +3671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -3730,7 +3682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>280</v>
       </c>
@@ -3741,7 +3693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>281</v>
       </c>
@@ -3752,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>282</v>
       </c>
@@ -3763,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>283</v>
       </c>
@@ -3774,7 +3726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>284</v>
       </c>
@@ -3785,7 +3737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>285</v>
       </c>
@@ -3796,7 +3748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>286</v>
       </c>
@@ -3806,11 +3758,8 @@
       <c r="C138" t="s">
         <v>3</v>
       </c>
-      <c r="D138">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>287</v>
       </c>
@@ -3820,11 +3769,8 @@
       <c r="C139" t="s">
         <v>3</v>
       </c>
-      <c r="D139">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>288</v>
       </c>
@@ -3834,11 +3780,8 @@
       <c r="C140" t="s">
         <v>3</v>
       </c>
-      <c r="D140">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>289</v>
       </c>
@@ -3848,11 +3791,8 @@
       <c r="C141" t="s">
         <v>3</v>
       </c>
-      <c r="D141">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -3863,7 +3803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>291</v>
       </c>
@@ -3874,7 +3814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>292</v>
       </c>
@@ -3885,7 +3825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>293</v>
       </c>
@@ -3896,7 +3836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>294</v>
       </c>
@@ -3907,7 +3847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>295</v>
       </c>
@@ -3918,7 +3858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>296</v>
       </c>
@@ -3929,7 +3869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -3940,7 +3880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>298</v>
       </c>
@@ -3951,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>299</v>
       </c>
@@ -3962,7 +3902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>300</v>
       </c>
@@ -3973,7 +3913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>301</v>
       </c>
@@ -3984,7 +3924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>302</v>
       </c>
@@ -3995,7 +3935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>303</v>
       </c>
@@ -4006,7 +3946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>304</v>
       </c>
@@ -4016,11 +3956,8 @@
       <c r="C156" t="s">
         <v>3</v>
       </c>
-      <c r="D156">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>305</v>
       </c>
@@ -4031,7 +3968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>306</v>
       </c>
@@ -4042,7 +3979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>307</v>
       </c>
@@ -4053,7 +3990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>308</v>
       </c>
@@ -4064,7 +4001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>309</v>
       </c>
@@ -4075,7 +4012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>310</v>
       </c>
@@ -4086,7 +4023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>311</v>
       </c>
@@ -4097,7 +4034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>312</v>
       </c>
@@ -4108,7 +4045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>313</v>
       </c>
@@ -4119,7 +4056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>314</v>
       </c>
@@ -4130,7 +4067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>315</v>
       </c>
@@ -4141,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>316</v>
       </c>
@@ -4151,11 +4088,8 @@
       <c r="C168" t="s">
         <v>3</v>
       </c>
-      <c r="D168">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>317</v>
       </c>
@@ -4165,11 +4099,8 @@
       <c r="C169" t="s">
         <v>3</v>
       </c>
-      <c r="D169">
-        <v>1983</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>318</v>
       </c>
@@ -4180,7 +4111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>319</v>
       </c>
@@ -4191,7 +4122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>320</v>
       </c>
@@ -4202,7 +4133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>321</v>
       </c>
@@ -4213,7 +4144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>322</v>
       </c>
@@ -4224,7 +4155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>323</v>
       </c>
@@ -4235,7 +4166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>324</v>
       </c>
@@ -4246,7 +4177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>325</v>
       </c>
@@ -4257,7 +4188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>326</v>
       </c>
@@ -4267,11 +4198,8 @@
       <c r="C178" t="s">
         <v>3</v>
       </c>
-      <c r="D178">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>327</v>
       </c>
@@ -4281,11 +4209,8 @@
       <c r="C179" t="s">
         <v>3</v>
       </c>
-      <c r="D179">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>328</v>
       </c>
@@ -4296,7 +4221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>329</v>
       </c>
@@ -4307,7 +4232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>330</v>
       </c>
@@ -4318,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>331</v>
       </c>
@@ -4329,7 +4254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>332</v>
       </c>
@@ -4340,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>333</v>
       </c>
@@ -4351,7 +4276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>334</v>
       </c>
@@ -4362,7 +4287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>335</v>
       </c>
@@ -4373,7 +4298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>336</v>
       </c>
@@ -4384,7 +4309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>337</v>
       </c>
@@ -4395,7 +4320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>338</v>
       </c>
@@ -4406,7 +4331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>339</v>
       </c>
@@ -4417,7 +4342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>340</v>
       </c>
@@ -4604,7 +4529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -4615,7 +4540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>358</v>
       </c>
@@ -4626,7 +4551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>359</v>
       </c>
@@ -4637,7 +4562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>360</v>
       </c>
@@ -4648,7 +4573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>361</v>
       </c>
@@ -4659,7 +4584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>362</v>
       </c>
@@ -4670,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>363</v>
       </c>
@@ -4681,7 +4606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>364</v>
       </c>
@@ -4692,7 +4617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>365</v>
       </c>
@@ -4703,7 +4628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>366</v>
       </c>
@@ -4714,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>367</v>
       </c>
@@ -4725,7 +4650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>368</v>
       </c>
@@ -4736,7 +4661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>369</v>
       </c>
@@ -4746,11 +4671,8 @@
       <c r="C221" t="s">
         <v>3</v>
       </c>
-      <c r="D221">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>370</v>
       </c>
@@ -4760,11 +4682,8 @@
       <c r="C222" t="s">
         <v>3</v>
       </c>
-      <c r="D222">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>371</v>
       </c>
@@ -4775,7 +4694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>372</v>
       </c>
@@ -4962,7 +4881,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>389</v>
       </c>
@@ -4973,7 +4892,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="242" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>390</v>
       </c>
@@ -4984,7 +4903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="243" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>391</v>
       </c>
@@ -4995,7 +4914,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="244" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>392</v>
       </c>
@@ -5006,7 +4925,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="245" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>393</v>
       </c>
@@ -5017,7 +4936,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>394</v>
       </c>
@@ -5028,7 +4947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>395</v>
       </c>
@@ -5039,7 +4958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>396</v>
       </c>
@@ -5050,7 +4969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>397</v>
       </c>
@@ -5061,7 +4980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>398</v>
       </c>
@@ -5071,11 +4990,8 @@
       <c r="C250" t="s">
         <v>3</v>
       </c>
-      <c r="D250">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>399</v>
       </c>
@@ -5086,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>400</v>
       </c>
@@ -5097,7 +5013,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="253" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>401</v>
       </c>
@@ -5108,7 +5024,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="254" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>402</v>
       </c>
@@ -5119,7 +5035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>403</v>
       </c>
@@ -5130,7 +5046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>404</v>
       </c>
@@ -5141,7 +5057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>405</v>
       </c>
@@ -5152,7 +5068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>406</v>
       </c>
@@ -5163,7 +5079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>407</v>
       </c>
@@ -5174,7 +5090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>408</v>
       </c>
@@ -5185,7 +5101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>409</v>
       </c>
@@ -5196,7 +5112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>410</v>
       </c>
@@ -5207,7 +5123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>411</v>
       </c>
@@ -5217,11 +5133,8 @@
       <c r="C263" t="s">
         <v>3</v>
       </c>
-      <c r="D263">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>412</v>
       </c>
@@ -5232,7 +5145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>413</v>
       </c>
@@ -5243,7 +5156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>414</v>
       </c>
@@ -5254,7 +5167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>415</v>
       </c>
@@ -5265,7 +5178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>416</v>
       </c>
@@ -5276,7 +5189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>417</v>
       </c>
@@ -5287,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>418</v>
       </c>
@@ -5298,7 +5211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>419</v>
       </c>
@@ -5309,7 +5222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>420</v>
       </c>
@@ -5320,7 +5233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>421</v>
       </c>
@@ -5331,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>422</v>
       </c>
@@ -5342,7 +5255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>423</v>
       </c>
@@ -5353,7 +5266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>424</v>
       </c>
@@ -5364,7 +5277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>425</v>
       </c>
@@ -5375,7 +5288,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="278" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>426</v>
       </c>
@@ -5386,7 +5299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="279" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>427</v>
       </c>
@@ -5397,7 +5310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="280" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>428</v>
       </c>
@@ -5408,7 +5321,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="281" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>429</v>
       </c>
@@ -5419,7 +5332,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="282" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>430</v>
       </c>
@@ -5430,7 +5343,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>431</v>
       </c>
@@ -5440,11 +5353,8 @@
       <c r="C283" t="s">
         <v>3</v>
       </c>
-      <c r="D283">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>432</v>
       </c>
@@ -5454,11 +5364,8 @@
       <c r="C284" t="s">
         <v>3</v>
       </c>
-      <c r="D284">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>433</v>
       </c>
@@ -5468,11 +5375,8 @@
       <c r="C285" t="s">
         <v>3</v>
       </c>
-      <c r="D285">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>434</v>
       </c>
@@ -5482,11 +5386,8 @@
       <c r="C286" t="s">
         <v>3</v>
       </c>
-      <c r="D286">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>435</v>
       </c>
@@ -5497,7 +5398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>436</v>
       </c>
@@ -5508,7 +5409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>437</v>
       </c>
@@ -5519,7 +5420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>438</v>
       </c>
@@ -5530,7 +5431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>439</v>
       </c>
@@ -5541,7 +5442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>440</v>
       </c>
@@ -5552,7 +5453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>441</v>
       </c>
@@ -5563,7 +5464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>442</v>
       </c>
@@ -5574,7 +5475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>443</v>
       </c>
@@ -5585,7 +5486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>444</v>
       </c>
@@ -5596,7 +5497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>445</v>
       </c>
@@ -5607,7 +5508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>446</v>
       </c>
@@ -5617,11 +5518,8 @@
       <c r="C298" t="s">
         <v>3</v>
       </c>
-      <c r="D298">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>447</v>
       </c>
@@ -5631,11 +5529,8 @@
       <c r="C299" t="s">
         <v>3</v>
       </c>
-      <c r="D299">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>448</v>
       </c>
@@ -5645,11 +5540,8 @@
       <c r="C300" t="s">
         <v>3</v>
       </c>
-      <c r="D300">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>449</v>
       </c>
@@ -5660,7 +5552,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="302" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>450</v>
       </c>
@@ -5671,7 +5563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>451</v>
       </c>
@@ -5682,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>452</v>
       </c>
@@ -5869,7 +5761,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="321" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>469</v>
       </c>
@@ -5880,7 +5772,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="322" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>470</v>
       </c>
@@ -5891,7 +5783,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="323" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>471</v>
       </c>
@@ -5902,7 +5794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="324" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>472</v>
       </c>
@@ -5913,7 +5805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>473</v>
       </c>
@@ -5924,7 +5816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>474</v>
       </c>
@@ -5935,7 +5827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>475</v>
       </c>
@@ -5946,7 +5838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>476</v>
       </c>
@@ -5957,7 +5849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>477</v>
       </c>
@@ -5968,7 +5860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>478</v>
       </c>
@@ -5979,7 +5871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>479</v>
       </c>
@@ -5989,11 +5881,8 @@
       <c r="C331" t="s">
         <v>3</v>
       </c>
-      <c r="D331">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>480</v>
       </c>
@@ -6004,7 +5893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>481</v>
       </c>
@@ -6014,11 +5903,8 @@
       <c r="C333" t="s">
         <v>3</v>
       </c>
-      <c r="D333">
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>482</v>
       </c>
@@ -6028,11 +5914,8 @@
       <c r="C334" t="s">
         <v>3</v>
       </c>
-      <c r="D334">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>483</v>
       </c>
@@ -6042,11 +5925,8 @@
       <c r="C335" t="s">
         <v>3</v>
       </c>
-      <c r="D335">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>484</v>
       </c>
@@ -6937,7 +6817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>565</v>
       </c>
@@ -6948,7 +6828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>566</v>
       </c>
@@ -6959,7 +6839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>567</v>
       </c>
@@ -6970,7 +6850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>568</v>
       </c>
@@ -6981,7 +6861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>569</v>
       </c>
@@ -6992,7 +6872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>570</v>
       </c>
@@ -7003,7 +6883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>571</v>
       </c>
@@ -7014,7 +6894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>572</v>
       </c>
@@ -7025,7 +6905,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>573</v>
       </c>
@@ -7036,7 +6916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>574</v>
       </c>
@@ -7047,7 +6927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>575</v>
       </c>
@@ -7057,11 +6937,8 @@
       <c r="C427" t="s">
         <v>3</v>
       </c>
-      <c r="D427">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>576</v>
       </c>
@@ -7071,11 +6948,8 @@
       <c r="C428" t="s">
         <v>3</v>
       </c>
-      <c r="D428">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>577</v>
       </c>
@@ -7085,11 +6959,8 @@
       <c r="C429" t="s">
         <v>3</v>
       </c>
-      <c r="D429">
-        <v>1984</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>578</v>
       </c>
@@ -7100,7 +6971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>579</v>
       </c>
@@ -7111,7 +6982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>580</v>
       </c>

--- a/Pub_Style.xlsx
+++ b/Pub_Style.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\craig_meta\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
@@ -141,9 +146,6 @@
     <t>Chambers, J. H., &amp; Ascione, F. R. (1987).  The effects of prosocial and aggressive video games on children’s donating and helping.  Journal of Genetic Psychology, 148, 499-505.</t>
   </si>
   <si>
-    <t>Cicchirillo, V. &amp; Chory-Assad, R.M. (2006). Effects of affective orientation and video game play on aggressive thoughts and behaviors. Journal of Broadcasting &amp; Electronic Media, 49, 435-449.</t>
-  </si>
-  <si>
     <t>Cohn, L. B. (1995). Violent video games: Aggression, arousal, and desensitization in young adolescent boys. Dissertation: University of Southern California, Los Angeles: CA.</t>
   </si>
   <si>
@@ -1903,13 +1905,16 @@
   </si>
   <si>
     <t>YY01ACn</t>
+  </si>
+  <si>
+    <t>Cicchiriool, V. &amp; Chory-Assad, R.M. (2006). Effects of affective orientation and video game play on aggressive thoughts and behaviors. Journal of Broadcasting &amp; Electronic Media, 49, 435-449.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1922,6 +1927,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1941,15 +1952,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2219,7 +2234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2230,20 +2245,20 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:C478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E250" sqref="E250"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B482" sqref="B482"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="71.140625" customWidth="1"/>
+    <col min="2" max="2" width="111.42578125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2252,9 +2267,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2265,7 +2280,7 @@
     </row>
     <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -2276,7 +2291,7 @@
     </row>
     <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -2287,7 +2302,7 @@
     </row>
     <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -2298,7 +2313,7 @@
     </row>
     <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2309,7 +2324,7 @@
     </row>
     <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2320,7 +2335,7 @@
     </row>
     <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2331,7 +2346,7 @@
     </row>
     <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -2342,7 +2357,7 @@
     </row>
     <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -2353,7 +2368,7 @@
     </row>
     <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -2364,7 +2379,7 @@
     </row>
     <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -2375,7 +2390,7 @@
     </row>
     <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -2386,7 +2401,7 @@
     </row>
     <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -2397,7 +2412,7 @@
     </row>
     <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B15" t="s">
         <v>9</v>
@@ -2408,7 +2423,7 @@
     </row>
     <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
@@ -2419,7 +2434,7 @@
     </row>
     <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
@@ -2430,7 +2445,7 @@
     </row>
     <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
@@ -2441,7 +2456,7 @@
     </row>
     <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
         <v>9</v>
@@ -2452,7 +2467,7 @@
     </row>
     <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>9</v>
@@ -2463,7 +2478,7 @@
     </row>
     <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -2474,7 +2489,7 @@
     </row>
     <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
@@ -2485,7 +2500,7 @@
     </row>
     <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -2496,7 +2511,7 @@
     </row>
     <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
@@ -2507,7 +2522,7 @@
     </row>
     <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -2518,7 +2533,7 @@
     </row>
     <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -2529,7 +2544,7 @@
     </row>
     <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -2540,7 +2555,7 @@
     </row>
     <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -2551,7 +2566,7 @@
     </row>
     <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -2562,7 +2577,7 @@
     </row>
     <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -2573,7 +2588,7 @@
     </row>
     <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -2584,7 +2599,7 @@
     </row>
     <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -2595,7 +2610,7 @@
     </row>
     <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -2606,7 +2621,7 @@
     </row>
     <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -2617,7 +2632,7 @@
     </row>
     <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -2628,7 +2643,7 @@
     </row>
     <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -2639,7 +2654,7 @@
     </row>
     <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -2650,7 +2665,7 @@
     </row>
     <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -2661,7 +2676,7 @@
     </row>
     <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -2672,7 +2687,7 @@
     </row>
     <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B40" t="s">
         <v>10</v>
@@ -2683,7 +2698,7 @@
     </row>
     <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -2694,7 +2709,7 @@
     </row>
     <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -2705,7 +2720,7 @@
     </row>
     <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -2716,7 +2731,7 @@
     </row>
     <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -2727,7 +2742,7 @@
     </row>
     <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -2738,7 +2753,7 @@
     </row>
     <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -2749,7 +2764,7 @@
     </row>
     <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -2760,7 +2775,7 @@
     </row>
     <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -2771,7 +2786,7 @@
     </row>
     <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -2782,7 +2797,7 @@
     </row>
     <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -2793,7 +2808,7 @@
     </row>
     <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -2804,7 +2819,7 @@
     </row>
     <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -2815,7 +2830,7 @@
     </row>
     <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
         <v>10</v>
@@ -2826,7 +2841,7 @@
     </row>
     <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2837,7 +2852,7 @@
     </row>
     <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2848,7 +2863,7 @@
     </row>
     <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2859,7 +2874,7 @@
     </row>
     <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2870,7 +2885,7 @@
     </row>
     <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B58" t="s">
         <v>12</v>
@@ -2881,7 +2896,7 @@
     </row>
     <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
@@ -2892,7 +2907,7 @@
     </row>
     <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B60" t="s">
         <v>12</v>
@@ -2903,7 +2918,7 @@
     </row>
     <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
@@ -2914,7 +2929,7 @@
     </row>
     <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" t="s">
         <v>13</v>
@@ -2925,7 +2940,7 @@
     </row>
     <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" t="s">
         <v>13</v>
@@ -2936,7 +2951,7 @@
     </row>
     <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" t="s">
         <v>13</v>
@@ -2945,9 +2960,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" t="s">
         <v>14</v>
@@ -2956,9 +2971,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" t="s">
         <v>15</v>
@@ -2967,9 +2982,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B67" t="s">
         <v>15</v>
@@ -2978,9 +2993,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -2991,7 +3006,7 @@
     </row>
     <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B69" t="s">
         <v>17</v>
@@ -3002,7 +3017,7 @@
     </row>
     <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" t="s">
         <v>17</v>
@@ -3013,7 +3028,7 @@
     </row>
     <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -3024,7 +3039,7 @@
     </row>
     <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -3035,7 +3050,7 @@
     </row>
     <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
@@ -3046,7 +3061,7 @@
     </row>
     <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
@@ -3057,7 +3072,7 @@
     </row>
     <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -3068,7 +3083,7 @@
     </row>
     <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
         <v>21</v>
@@ -3079,7 +3094,7 @@
     </row>
     <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
         <v>21</v>
@@ -3090,7 +3105,7 @@
     </row>
     <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B78" t="s">
         <v>21</v>
@@ -3101,7 +3116,7 @@
     </row>
     <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" t="s">
         <v>22</v>
@@ -3112,7 +3127,7 @@
     </row>
     <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B80" t="s">
         <v>22</v>
@@ -3123,7 +3138,7 @@
     </row>
     <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B81" t="s">
         <v>22</v>
@@ -3134,7 +3149,7 @@
     </row>
     <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" t="s">
         <v>22</v>
@@ -3145,7 +3160,7 @@
     </row>
     <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -3156,7 +3171,7 @@
     </row>
     <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -3167,7 +3182,7 @@
     </row>
     <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
@@ -3178,7 +3193,7 @@
     </row>
     <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
@@ -3189,7 +3204,7 @@
     </row>
     <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -3200,7 +3215,7 @@
     </row>
     <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -3211,7 +3226,7 @@
     </row>
     <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
@@ -3222,7 +3237,7 @@
     </row>
     <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
@@ -3233,7 +3248,7 @@
     </row>
     <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B91" t="s">
         <v>25</v>
@@ -3244,7 +3259,7 @@
     </row>
     <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B92" t="s">
         <v>25</v>
@@ -3255,7 +3270,7 @@
     </row>
     <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B93" t="s">
         <v>26</v>
@@ -3266,7 +3281,7 @@
     </row>
     <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B94" t="s">
         <v>26</v>
@@ -3277,7 +3292,7 @@
     </row>
     <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B95" t="s">
         <v>27</v>
@@ -3288,7 +3303,7 @@
     </row>
     <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B96" t="s">
         <v>27</v>
@@ -3299,7 +3314,7 @@
     </row>
     <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B97" t="s">
         <v>27</v>
@@ -3310,7 +3325,7 @@
     </row>
     <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B98" t="s">
         <v>27</v>
@@ -3321,7 +3336,7 @@
     </row>
     <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B99" t="s">
         <v>27</v>
@@ -3330,9 +3345,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B100" t="s">
         <v>28</v>
@@ -3341,9 +3356,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B101" t="s">
         <v>28</v>
@@ -3352,9 +3367,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B102" t="s">
         <v>28</v>
@@ -3363,9 +3378,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B103" t="s">
         <v>28</v>
@@ -3376,7 +3391,7 @@
     </row>
     <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B104" t="s">
         <v>29</v>
@@ -3387,7 +3402,7 @@
     </row>
     <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B105" t="s">
         <v>29</v>
@@ -3398,7 +3413,7 @@
     </row>
     <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
@@ -3409,7 +3424,7 @@
     </row>
     <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B107" t="s">
         <v>30</v>
@@ -3420,7 +3435,7 @@
     </row>
     <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B108" t="s">
         <v>30</v>
@@ -3431,7 +3446,7 @@
     </row>
     <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
@@ -3442,7 +3457,7 @@
     </row>
     <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B110" t="s">
         <v>30</v>
@@ -3453,7 +3468,7 @@
     </row>
     <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B111" t="s">
         <v>30</v>
@@ -3464,7 +3479,7 @@
     </row>
     <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B112" t="s">
         <v>30</v>
@@ -3475,7 +3490,7 @@
     </row>
     <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B113" t="s">
         <v>30</v>
@@ -3484,9 +3499,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B114" t="s">
         <v>31</v>
@@ -3495,9 +3510,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B115" t="s">
         <v>31</v>
@@ -3506,9 +3521,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B116" t="s">
         <v>31</v>
@@ -3517,9 +3532,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B117" t="s">
         <v>32</v>
@@ -3528,9 +3543,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B118" t="s">
         <v>32</v>
@@ -3541,7 +3556,7 @@
     </row>
     <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B119" t="s">
         <v>33</v>
@@ -3552,7 +3567,7 @@
     </row>
     <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B120" t="s">
         <v>34</v>
@@ -3563,7 +3578,7 @@
     </row>
     <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B121" t="s">
         <v>34</v>
@@ -3574,7 +3589,7 @@
     </row>
     <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B122" t="s">
         <v>35</v>
@@ -3585,7 +3600,7 @@
     </row>
     <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B123" t="s">
         <v>35</v>
@@ -3596,7 +3611,7 @@
     </row>
     <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B124" t="s">
         <v>35</v>
@@ -3607,7 +3622,7 @@
     </row>
     <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B125" t="s">
         <v>36</v>
@@ -3618,7 +3633,7 @@
     </row>
     <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B126" t="s">
         <v>36</v>
@@ -3629,7 +3644,7 @@
     </row>
     <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B127" t="s">
         <v>36</v>
@@ -3640,7 +3655,7 @@
     </row>
     <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B128" t="s">
         <v>36</v>
@@ -3651,7 +3666,7 @@
     </row>
     <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B129" t="s">
         <v>36</v>
@@ -3662,7 +3677,7 @@
     </row>
     <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B130" t="s">
         <v>36</v>
@@ -3673,7 +3688,7 @@
     </row>
     <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B131" t="s">
         <v>36</v>
@@ -3684,7 +3699,7 @@
     </row>
     <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B132" t="s">
         <v>36</v>
@@ -3695,7 +3710,7 @@
     </row>
     <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B133" t="s">
         <v>36</v>
@@ -3706,7 +3721,7 @@
     </row>
     <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B134" t="s">
         <v>37</v>
@@ -3717,7 +3732,7 @@
     </row>
     <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B135" t="s">
         <v>38</v>
@@ -3726,67 +3741,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>283</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="C136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>284</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>285</v>
+      </c>
+      <c r="B138" t="s">
         <v>39</v>
-      </c>
-      <c r="C136" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>285</v>
-      </c>
-      <c r="B137" t="s">
-        <v>39</v>
-      </c>
-      <c r="C137" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>286</v>
-      </c>
-      <c r="B138" t="s">
-        <v>40</v>
       </c>
       <c r="C138" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C140" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C141" t="s">
         <v>3</v>
@@ -3794,10 +3809,10 @@
     </row>
     <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3805,10 +3820,10 @@
     </row>
     <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3816,10 +3831,10 @@
     </row>
     <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3827,10 +3842,10 @@
     </row>
     <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3838,10 +3853,10 @@
     </row>
     <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B146" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3849,10 +3864,10 @@
     </row>
     <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B147" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -3860,10 +3875,10 @@
     </row>
     <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3871,10 +3886,10 @@
     </row>
     <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -3882,10 +3897,10 @@
     </row>
     <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -3893,10 +3908,10 @@
     </row>
     <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B151" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -3904,10 +3919,10 @@
     </row>
     <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -3915,10 +3930,10 @@
     </row>
     <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -3926,10 +3941,10 @@
     </row>
     <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -3937,21 +3952,21 @@
     </row>
     <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>303</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>44</v>
-      </c>
-      <c r="C155" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>304</v>
-      </c>
-      <c r="B156" t="s">
-        <v>45</v>
       </c>
       <c r="C156" t="s">
         <v>3</v>
@@ -3959,10 +3974,10 @@
     </row>
     <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -3970,10 +3985,10 @@
     </row>
     <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -3981,10 +3996,10 @@
     </row>
     <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B159" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -3992,10 +4007,10 @@
     </row>
     <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B160" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4003,10 +4018,10 @@
     </row>
     <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B161" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4014,10 +4029,10 @@
     </row>
     <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B162" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4025,10 +4040,10 @@
     </row>
     <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B163" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4036,10 +4051,10 @@
     </row>
     <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B164" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4047,10 +4062,10 @@
     </row>
     <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B165" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4058,10 +4073,10 @@
     </row>
     <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B166" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4069,32 +4084,32 @@
     </row>
     <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>314</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>315</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>51</v>
-      </c>
-      <c r="C167" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>316</v>
-      </c>
-      <c r="B168" t="s">
-        <v>52</v>
       </c>
       <c r="C168" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C169" t="s">
         <v>3</v>
@@ -4102,10 +4117,10 @@
     </row>
     <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4113,10 +4128,10 @@
     </row>
     <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B171" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4124,10 +4139,10 @@
     </row>
     <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B172" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4135,10 +4150,10 @@
     </row>
     <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B173" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4146,10 +4161,10 @@
     </row>
     <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B174" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4157,10 +4172,10 @@
     </row>
     <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4168,10 +4183,10 @@
     </row>
     <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B176" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4179,32 +4194,32 @@
     </row>
     <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>325</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B178" t="s">
         <v>55</v>
-      </c>
-      <c r="C177" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>326</v>
-      </c>
-      <c r="B178" t="s">
-        <v>56</v>
       </c>
       <c r="C178" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B179" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C179" t="s">
         <v>3</v>
@@ -4212,10 +4227,10 @@
     </row>
     <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B180" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4223,10 +4238,10 @@
     </row>
     <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4234,10 +4249,10 @@
     </row>
     <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B182" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4245,10 +4260,10 @@
     </row>
     <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B183" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4256,10 +4271,10 @@
     </row>
     <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B184" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4267,10 +4282,10 @@
     </row>
     <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B185" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4278,10 +4293,10 @@
     </row>
     <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B186" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4289,10 +4304,10 @@
     </row>
     <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B187" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4300,10 +4315,10 @@
     </row>
     <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B188" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4311,10 +4326,10 @@
     </row>
     <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B189" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4322,10 +4337,10 @@
     </row>
     <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B190" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4333,10 +4348,10 @@
     </row>
     <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B191" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4344,10 +4359,10 @@
     </row>
     <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B192" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4355,10 +4370,10 @@
     </row>
     <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B193" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4366,10 +4381,10 @@
     </row>
     <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B194" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4377,10 +4392,10 @@
     </row>
     <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B195" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4388,10 +4403,10 @@
     </row>
     <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B196" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4399,10 +4414,10 @@
     </row>
     <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B197" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4410,10 +4425,10 @@
     </row>
     <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4421,10 +4436,10 @@
     </row>
     <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B199" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4432,10 +4447,10 @@
     </row>
     <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B200" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4443,10 +4458,10 @@
     </row>
     <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B201" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4454,10 +4469,10 @@
     </row>
     <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B202" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4465,10 +4480,10 @@
     </row>
     <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B203" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4476,10 +4491,10 @@
     </row>
     <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B204" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4487,10 +4502,10 @@
     </row>
     <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B205" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4498,10 +4513,10 @@
     </row>
     <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4509,10 +4524,10 @@
     </row>
     <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B207" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4520,10 +4535,10 @@
     </row>
     <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B208" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4531,10 +4546,10 @@
     </row>
     <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B209" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4542,10 +4557,10 @@
     </row>
     <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B210" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4553,10 +4568,10 @@
     </row>
     <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B211" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4564,10 +4579,10 @@
     </row>
     <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B212" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4575,10 +4590,10 @@
     </row>
     <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B213" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4586,10 +4601,10 @@
     </row>
     <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B214" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4597,10 +4612,10 @@
     </row>
     <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B215" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4608,10 +4623,10 @@
     </row>
     <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B216" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4619,10 +4634,10 @@
     </row>
     <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B217" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4630,10 +4645,10 @@
     </row>
     <row r="218" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B218" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4641,10 +4656,10 @@
     </row>
     <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B219" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C219" t="s">
         <v>11</v>
@@ -4652,32 +4667,32 @@
     </row>
     <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>367</v>
+      </c>
+      <c r="B220" t="s">
+        <v>69</v>
+      </c>
+      <c r="C220" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>368</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>70</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A221" t="s">
-        <v>369</v>
-      </c>
-      <c r="B221" t="s">
-        <v>71</v>
       </c>
       <c r="C221" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B222" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C222" t="s">
         <v>3</v>
@@ -4685,10 +4700,10 @@
     </row>
     <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B223" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4696,10 +4711,10 @@
     </row>
     <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B224" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4707,10 +4722,10 @@
     </row>
     <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B225" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4718,10 +4733,10 @@
     </row>
     <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B226" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4729,10 +4744,10 @@
     </row>
     <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B227" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4740,10 +4755,10 @@
     </row>
     <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B228" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4751,10 +4766,10 @@
     </row>
     <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B229" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4762,10 +4777,10 @@
     </row>
     <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B230" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4773,10 +4788,10 @@
     </row>
     <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B231" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4784,10 +4799,10 @@
     </row>
     <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B232" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4795,153 +4810,153 @@
     </row>
     <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B233" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C233" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B234" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B235" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C235" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B236" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C236" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B237" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C237" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B238" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C238" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B239" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C239" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B240" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C240" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B241" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C241" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B242" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C242" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B243" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C243" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B244" t="s">
+        <v>75</v>
+      </c>
+      <c r="C244" t="s">
         <v>76</v>
-      </c>
-      <c r="C244" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B245" t="s">
+        <v>75</v>
+      </c>
+      <c r="C245" t="s">
         <v>76</v>
-      </c>
-      <c r="C245" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B246" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -4949,10 +4964,10 @@
     </row>
     <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B247" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -4960,10 +4975,10 @@
     </row>
     <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B248" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -4971,21 +4986,21 @@
     </row>
     <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>396</v>
+      </c>
+      <c r="B249" t="s">
+        <v>78</v>
+      </c>
+      <c r="C249" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
         <v>397</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B250" t="s">
         <v>79</v>
-      </c>
-      <c r="C249" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250" t="s">
-        <v>398</v>
-      </c>
-      <c r="B250" t="s">
-        <v>80</v>
       </c>
       <c r="C250" t="s">
         <v>3</v>
@@ -4993,10 +5008,10 @@
     </row>
     <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B251" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5004,32 +5019,32 @@
     </row>
     <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B252" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C252" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B253" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C253" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B254" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5037,10 +5052,10 @@
     </row>
     <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B255" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5048,10 +5063,10 @@
     </row>
     <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B256" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5059,10 +5074,10 @@
     </row>
     <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B257" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5070,10 +5085,10 @@
     </row>
     <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B258" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5081,10 +5096,10 @@
     </row>
     <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B259" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5092,10 +5107,10 @@
     </row>
     <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B260" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5103,10 +5118,10 @@
     </row>
     <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B261" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5114,21 +5129,21 @@
     </row>
     <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>409</v>
+      </c>
+      <c r="B262" t="s">
+        <v>86</v>
+      </c>
+      <c r="C262" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
         <v>410</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>87</v>
-      </c>
-      <c r="C262" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" t="s">
-        <v>411</v>
-      </c>
-      <c r="B263" t="s">
-        <v>88</v>
       </c>
       <c r="C263" t="s">
         <v>3</v>
@@ -5136,10 +5151,10 @@
     </row>
     <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B264" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5147,10 +5162,10 @@
     </row>
     <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B265" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5158,10 +5173,10 @@
     </row>
     <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B266" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5169,10 +5184,10 @@
     </row>
     <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5180,10 +5195,10 @@
     </row>
     <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B268" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5191,10 +5206,10 @@
     </row>
     <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B269" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5202,10 +5217,10 @@
     </row>
     <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B270" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C270" t="s">
         <v>11</v>
@@ -5213,10 +5228,10 @@
     </row>
     <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B271" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C271" t="s">
         <v>11</v>
@@ -5224,10 +5239,10 @@
     </row>
     <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B272" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5235,10 +5250,10 @@
     </row>
     <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B273" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5246,10 +5261,10 @@
     </row>
     <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B274" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5257,10 +5272,10 @@
     </row>
     <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B275" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5268,10 +5283,10 @@
     </row>
     <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B276" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5279,109 +5294,109 @@
     </row>
     <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B277" t="s">
+        <v>96</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B278" t="s">
+        <v>96</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B279" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B280" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B281" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>429</v>
+      </c>
+      <c r="B282" t="s">
+        <v>98</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
         <v>430</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B283" t="s">
         <v>99</v>
-      </c>
-      <c r="C282" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>431</v>
-      </c>
-      <c r="B283" t="s">
-        <v>100</v>
       </c>
       <c r="C283" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B284" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C284" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B285" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C285" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B286" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C286" t="s">
         <v>3</v>
@@ -5389,10 +5404,10 @@
     </row>
     <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B287" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5400,10 +5415,10 @@
     </row>
     <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B288" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5411,10 +5426,10 @@
     </row>
     <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B289" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5422,10 +5437,10 @@
     </row>
     <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B290" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5433,10 +5448,10 @@
     </row>
     <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B291" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5444,10 +5459,10 @@
     </row>
     <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B292" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5455,10 +5470,10 @@
     </row>
     <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B293" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5466,10 +5481,10 @@
     </row>
     <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B294" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5477,10 +5492,10 @@
     </row>
     <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B295" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5488,10 +5503,10 @@
     </row>
     <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B296" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5499,43 +5514,43 @@
     </row>
     <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>444</v>
+      </c>
+      <c r="B297" t="s">
+        <v>101</v>
+      </c>
+      <c r="C297" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
         <v>445</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B298" t="s">
         <v>102</v>
-      </c>
-      <c r="C297" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>446</v>
-      </c>
-      <c r="B298" t="s">
-        <v>103</v>
       </c>
       <c r="C298" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B299" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C299" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B300" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C300" t="s">
         <v>3</v>
@@ -5543,21 +5558,21 @@
     </row>
     <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B301" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C301" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B302" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5565,10 +5580,10 @@
     </row>
     <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B303" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5576,230 +5591,230 @@
     </row>
     <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B304" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C304" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B305" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C305" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B306" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C306" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B307" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C307" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B308" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C308" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B309" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C309" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B310" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C310" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B311" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C311" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B312" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C312" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B313" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C313" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B314" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C314" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B315" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C315" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B316" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C316" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B317" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C317" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B318" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C318" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B319" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C319" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B320" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C320" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B321" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C321" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B322" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C322" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B323" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C323" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B324" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5807,10 +5822,10 @@
     </row>
     <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B325" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5818,10 +5833,10 @@
     </row>
     <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B326" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5829,10 +5844,10 @@
     </row>
     <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B327" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5840,10 +5855,10 @@
     </row>
     <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B328" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5851,10 +5866,10 @@
     </row>
     <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B329" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5862,21 +5877,21 @@
     </row>
     <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>477</v>
+      </c>
+      <c r="B330" t="s">
+        <v>109</v>
+      </c>
+      <c r="C330" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
         <v>478</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B331" t="s">
         <v>110</v>
-      </c>
-      <c r="C330" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A331" t="s">
-        <v>479</v>
-      </c>
-      <c r="B331" t="s">
-        <v>111</v>
       </c>
       <c r="C331" t="s">
         <v>3</v>
@@ -5884,43 +5899,43 @@
     </row>
     <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>479</v>
+      </c>
+      <c r="B332" t="s">
+        <v>111</v>
+      </c>
+      <c r="C332" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
         <v>480</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B333" t="s">
         <v>112</v>
-      </c>
-      <c r="C332" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A333" t="s">
-        <v>481</v>
-      </c>
-      <c r="B333" t="s">
-        <v>113</v>
       </c>
       <c r="C333" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B334" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C334" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B335" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C335" t="s">
         <v>3</v>
@@ -5928,10 +5943,10 @@
     </row>
     <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B336" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -5939,10 +5954,10 @@
     </row>
     <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B337" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -5950,32 +5965,32 @@
     </row>
     <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B338" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C338" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B339" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C339" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B340" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -5983,10 +5998,10 @@
     </row>
     <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B341" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -5994,10 +6009,10 @@
     </row>
     <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6005,285 +6020,285 @@
     </row>
     <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B343" t="s">
+        <v>118</v>
+      </c>
+      <c r="C343" t="s">
         <v>119</v>
-      </c>
-      <c r="C343" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B344" t="s">
+        <v>118</v>
+      </c>
+      <c r="C344" t="s">
         <v>119</v>
-      </c>
-      <c r="C344" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
+        <v>118</v>
+      </c>
+      <c r="C345" t="s">
         <v>119</v>
-      </c>
-      <c r="C345" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B346" t="s">
+        <v>118</v>
+      </c>
+      <c r="C346" t="s">
         <v>119</v>
-      </c>
-      <c r="C346" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B347" t="s">
+        <v>118</v>
+      </c>
+      <c r="C347" t="s">
         <v>119</v>
-      </c>
-      <c r="C347" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
+        <v>118</v>
+      </c>
+      <c r="C348" t="s">
         <v>119</v>
-      </c>
-      <c r="C348" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
+        <v>118</v>
+      </c>
+      <c r="C349" t="s">
         <v>119</v>
-      </c>
-      <c r="C349" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B350" t="s">
+        <v>118</v>
+      </c>
+      <c r="C350" t="s">
         <v>119</v>
-      </c>
-      <c r="C350" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
+        <v>118</v>
+      </c>
+      <c r="C351" t="s">
         <v>119</v>
-      </c>
-      <c r="C351" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B352" t="s">
+        <v>118</v>
+      </c>
+      <c r="C352" t="s">
         <v>119</v>
-      </c>
-      <c r="C352" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B353" t="s">
+        <v>118</v>
+      </c>
+      <c r="C353" t="s">
         <v>119</v>
-      </c>
-      <c r="C353" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B354" t="s">
+        <v>118</v>
+      </c>
+      <c r="C354" t="s">
         <v>119</v>
-      </c>
-      <c r="C354" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B355" t="s">
+        <v>118</v>
+      </c>
+      <c r="C355" t="s">
         <v>119</v>
-      </c>
-      <c r="C355" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B356" t="s">
+        <v>118</v>
+      </c>
+      <c r="C356" t="s">
         <v>119</v>
-      </c>
-      <c r="C356" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B357" t="s">
+        <v>118</v>
+      </c>
+      <c r="C357" t="s">
         <v>119</v>
-      </c>
-      <c r="C357" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B358" t="s">
+        <v>118</v>
+      </c>
+      <c r="C358" t="s">
         <v>119</v>
-      </c>
-      <c r="C358" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B359" t="s">
+        <v>118</v>
+      </c>
+      <c r="C359" t="s">
         <v>119</v>
-      </c>
-      <c r="C359" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B360" t="s">
+        <v>118</v>
+      </c>
+      <c r="C360" t="s">
         <v>119</v>
-      </c>
-      <c r="C360" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B361" t="s">
+        <v>118</v>
+      </c>
+      <c r="C361" t="s">
         <v>119</v>
-      </c>
-      <c r="C361" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B362" t="s">
+        <v>118</v>
+      </c>
+      <c r="C362" t="s">
         <v>119</v>
-      </c>
-      <c r="C362" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B363" t="s">
+        <v>118</v>
+      </c>
+      <c r="C363" t="s">
         <v>119</v>
-      </c>
-      <c r="C363" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B364" t="s">
+        <v>118</v>
+      </c>
+      <c r="C364" t="s">
         <v>119</v>
-      </c>
-      <c r="C364" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B365" t="s">
+        <v>118</v>
+      </c>
+      <c r="C365" t="s">
         <v>119</v>
-      </c>
-      <c r="C365" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B366" t="s">
+        <v>118</v>
+      </c>
+      <c r="C366" t="s">
         <v>119</v>
-      </c>
-      <c r="C366" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B367" t="s">
+        <v>118</v>
+      </c>
+      <c r="C367" t="s">
         <v>119</v>
-      </c>
-      <c r="C367" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B368" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6291,10 +6306,10 @@
     </row>
     <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B369" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6302,10 +6317,10 @@
     </row>
     <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B370" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6313,10 +6328,10 @@
     </row>
     <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B371" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6324,10 +6339,10 @@
     </row>
     <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B372" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6335,10 +6350,10 @@
     </row>
     <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B373" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6346,10 +6361,10 @@
     </row>
     <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B374" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6357,340 +6372,340 @@
     </row>
     <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B375" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C375" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B376" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C376" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B377" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C377" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B378" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C378" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="379" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B379" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C379" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B380" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C380" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B381" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C381" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B382" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C382" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B383" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C383" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B384" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C384" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B385" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C385" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B386" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C386" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B387" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C387" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B388" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C388" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B389" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C389" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B390" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C390" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B391" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C391" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B392" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C392" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B393" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C393" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B394" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C394" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B395" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C395" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B396" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C396" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B397" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C397" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B398" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C398" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="399" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B399" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C399" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B400" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C400" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B401" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C401" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B402" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C402" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B403" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C403" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B404" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C404" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B405" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6698,10 +6713,10 @@
     </row>
     <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B406" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6709,10 +6724,10 @@
     </row>
     <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B407" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6720,10 +6735,10 @@
     </row>
     <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B408" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6731,10 +6746,10 @@
     </row>
     <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B409" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6742,10 +6757,10 @@
     </row>
     <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B410" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6753,10 +6768,10 @@
     </row>
     <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B411" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6764,10 +6779,10 @@
     </row>
     <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B412" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6775,10 +6790,10 @@
     </row>
     <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B413" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6786,10 +6801,10 @@
     </row>
     <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B414" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6797,10 +6812,10 @@
     </row>
     <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B415" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6808,10 +6823,10 @@
     </row>
     <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B416" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6819,21 +6834,21 @@
     </row>
     <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B417" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C417" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B418" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6841,10 +6856,10 @@
     </row>
     <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B419" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6852,10 +6867,10 @@
     </row>
     <row r="420" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B420" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6863,10 +6878,10 @@
     </row>
     <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B421" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6874,10 +6889,10 @@
     </row>
     <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B422" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -6885,10 +6900,10 @@
     </row>
     <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B423" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -6896,65 +6911,65 @@
     </row>
     <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B424" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C424" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B425" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C425" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>573</v>
+      </c>
+      <c r="B426" t="s">
+        <v>133</v>
+      </c>
+      <c r="C426" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
         <v>574</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B427" t="s">
         <v>134</v>
-      </c>
-      <c r="C426" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>575</v>
-      </c>
-      <c r="B427" t="s">
-        <v>135</v>
       </c>
       <c r="C427" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B428" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C428" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B429" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C429" t="s">
         <v>3</v>
@@ -6962,10 +6977,10 @@
     </row>
     <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B430" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -6973,10 +6988,10 @@
     </row>
     <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B431" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -6984,10 +6999,10 @@
     </row>
     <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B432" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -6995,10 +7010,10 @@
     </row>
     <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B433" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7006,10 +7021,10 @@
     </row>
     <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B434" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7017,10 +7032,10 @@
     </row>
     <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B435" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7028,10 +7043,10 @@
     </row>
     <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B436" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7039,10 +7054,10 @@
     </row>
     <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B437" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7050,10 +7065,10 @@
     </row>
     <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B438" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7061,10 +7076,10 @@
     </row>
     <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B439" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7072,10 +7087,10 @@
     </row>
     <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B440" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7083,10 +7098,10 @@
     </row>
     <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B441" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7094,10 +7109,10 @@
     </row>
     <row r="442" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B442" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7105,10 +7120,10 @@
     </row>
     <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B443" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7116,10 +7131,10 @@
     </row>
     <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B444" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7127,10 +7142,10 @@
     </row>
     <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B445" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7138,10 +7153,10 @@
     </row>
     <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B446" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7149,10 +7164,10 @@
     </row>
     <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B447" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7160,10 +7175,10 @@
     </row>
     <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B448" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7171,10 +7186,10 @@
     </row>
     <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B449" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7182,10 +7197,10 @@
     </row>
     <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B450" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7193,274 +7208,274 @@
     </row>
     <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B451" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C451" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B452" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C452" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B453" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C453" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B454" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C454" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B455" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C455" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B456" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C456" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B457" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C457" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B458" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C458" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B459" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C459" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B460" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C460" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B461" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C461" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B462" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C462" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="463" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B463" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C463" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B464" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C464" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B465" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C465" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B466" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C466" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B467" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C467" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B468" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C468" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B469" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C469" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B470" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C470" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B471" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C471" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B472" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C472" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B473" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C473" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B474" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C474" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B475" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7468,10 +7483,10 @@
     </row>
     <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B476" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7479,10 +7494,10 @@
     </row>
     <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B477" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7490,10 +7505,10 @@
     </row>
     <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B478" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7501,9 +7516,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C478">
-    <filterColumn colId="2">
+    <filterColumn colId="1">
       <filters>
-        <filter val="Dissertation (unpub)"/>
+        <filter val="Cicchirillo, V. &amp; Chory-Assad, R.M. (2006). Effects of affective orientation and video game play on aggressive thoughts and behaviors. Journal of Broadcasting &amp; Electronic Media, 49, 435-449."/>
       </filters>
     </filterColumn>
   </autoFilter>
